--- a/GunfireDungeon_Godot/excel/EnemyBase.xlsx
+++ b/GunfireDungeon_Godot/excel/EnemyBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17380"/>
+    <workbookView windowWidth="28290" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>enemy_dead0001</t>
-  </si>
-  <si>
-    <t>0002</t>
   </si>
   <si>
     <t>enemy0002</t>
@@ -1110,10 +1107,10 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
@@ -1121,14 +1118,14 @@
     <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.6346153846154" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.6333333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="21.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.5480769230769" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.5096153846154" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.2307692307692" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.55" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.5083333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.2333333333333" style="2" customWidth="1"/>
     <col min="16" max="17" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1320,15 +1317,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="34" customHeight="1" spans="2:13">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="2">
         <v>25</v>
@@ -1358,7 +1352,7 @@
         <v>150</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1"/>
@@ -1380,7 +1374,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1397,7 +1391,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
